--- a/comp_data.xlsx
+++ b/comp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domonkos\Documents\company-valuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA314338-B3B2-4D0B-AA5C-DB22724061C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EC0EF-C3AA-4710-9ACE-DD19C0D7810A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90F6D118-C31A-4279-8730-BD4899D446FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{90F6D118-C31A-4279-8730-BD4899D446FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,10 +492,20 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -531,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>17.52</v>
+        <v>11.44</v>
       </c>
       <c r="D2">
-        <v>-22.6</v>
+        <v>-54.14</v>
       </c>
       <c r="E2" s="1">
         <f>1315.01/1338.56-1</f>
@@ -558,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>48.03</v>
+        <v>15.45</v>
       </c>
       <c r="D3">
-        <v>-3.1</v>
+        <v>-4.2</v>
       </c>
       <c r="E3" s="1">
         <f>409.71/422.64-1</f>
@@ -585,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>61.34</v>
+        <v>14.01</v>
       </c>
       <c r="D4">
-        <v>17.68</v>
+        <v>22.34</v>
       </c>
       <c r="E4" s="1">
         <f>442.33/435.83-1</f>
@@ -612,10 +622,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>194.9</v>
+        <v>27.43</v>
       </c>
       <c r="D5">
-        <v>90.26</v>
+        <v>94.28</v>
       </c>
       <c r="E5" s="1">
         <f>594.52/459.31-1</f>
@@ -639,10 +649,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>48.75</v>
+        <v>17.07</v>
       </c>
       <c r="D6">
-        <v>11.3</v>
+        <v>10.15</v>
       </c>
       <c r="E6" s="1">
         <f>541.39/630.18-1</f>
@@ -666,10 +676,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>61.26</v>
+        <v>11.57</v>
       </c>
       <c r="D7">
-        <v>22.17</v>
+        <v>21.34</v>
       </c>
       <c r="E7" s="1">
         <f>966.99/869.69-1</f>
@@ -693,10 +703,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>78.11</v>
+        <v>11.88</v>
       </c>
       <c r="D8">
-        <v>20.53</v>
+        <v>18.87</v>
       </c>
       <c r="E8" s="1">
         <f>8665.9/8297.3-1</f>
@@ -720,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>70.400000000000006</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="D9">
-        <v>25.93</v>
+        <v>24.86</v>
       </c>
       <c r="E9" s="1">
         <f>21076.5/21025.2-1</f>
@@ -747,10 +757,10 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>19.91</v>
       </c>
       <c r="D10">
-        <v>27.83</v>
+        <v>23.82</v>
       </c>
       <c r="E10" s="1">
         <f>0.984001406469761-1</f>
@@ -774,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>44.82</v>
+        <v>12.7</v>
       </c>
       <c r="D11">
-        <v>19.48</v>
+        <v>17.96</v>
       </c>
       <c r="E11" s="1">
         <f>550.94/412.35-1</f>
@@ -801,10 +811,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>110.92</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="D12">
-        <v>47.4</v>
+        <v>41.26</v>
       </c>
       <c r="E12" s="1">
         <f>281.763/269.241-1</f>
@@ -814,7 +824,7 @@
         <v>6653</v>
       </c>
       <c r="G12">
-        <v>281.76299999999998</v>
+        <v>2587.9970240555508</v>
       </c>
       <c r="H12">
         <v>0.37</v>
@@ -828,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>40.619999999999997</v>
+        <v>8.67</v>
       </c>
       <c r="D13">
-        <v>34.11</v>
+        <v>44.41</v>
       </c>
       <c r="E13" s="1">
         <f>375.682/366.36-1</f>
@@ -841,7 +851,7 @@
         <v>3953</v>
       </c>
       <c r="G13">
-        <v>375.68200000000002</v>
+        <v>3450.6443287132711</v>
       </c>
       <c r="H13">
         <v>0.46</v>
@@ -855,10 +865,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>99.9</v>
+        <v>13.45</v>
       </c>
       <c r="D14">
-        <v>28.85</v>
+        <v>36.35</v>
       </c>
       <c r="E14" s="1">
         <f>632.721/598.2-1</f>
@@ -868,7 +878,7 @@
         <v>3569</v>
       </c>
       <c r="G14">
-        <v>632.721</v>
+        <v>5811.5510732688545</v>
       </c>
       <c r="H14">
         <v>7.0000000000000007E-2</v>
@@ -882,10 +892,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>77.739999999999995</v>
+        <v>35.56</v>
       </c>
       <c r="D15">
-        <v>68.760000000000005</v>
+        <v>68.19</v>
       </c>
       <c r="E15" s="1">
         <f>38913.46/30184-1</f>
@@ -895,7 +905,7 @@
         <v>2922</v>
       </c>
       <c r="G15">
-        <v>38913.46</v>
+        <v>545.6866402097852</v>
       </c>
       <c r="H15">
         <v>0.96</v>
@@ -909,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>55.74</v>
+        <v>14.87</v>
       </c>
       <c r="D16">
-        <v>25.54</v>
+        <v>24.91</v>
       </c>
       <c r="E16" s="1">
         <f>17739.1/17113.05-1</f>
@@ -922,7 +932,7 @@
         <v>2196</v>
       </c>
       <c r="G16">
-        <v>17739.099999999999</v>
+        <v>591.89522856189524</v>
       </c>
       <c r="H16">
         <v>0.56999999999999995</v>
@@ -936,10 +946,10 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>404.95</v>
+        <v>22.16</v>
       </c>
       <c r="D17">
-        <v>29.85</v>
+        <v>31.94</v>
       </c>
       <c r="E17" s="1">
         <f>3028.7/2537.13-1</f>
@@ -949,7 +959,7 @@
         <v>1863</v>
       </c>
       <c r="G17">
-        <v>3028.7</v>
+        <v>433.55712383869906</v>
       </c>
       <c r="H17">
         <v>0.64</v>
@@ -963,10 +973,10 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>6.15</v>
+        <v>13.32</v>
       </c>
       <c r="D18">
-        <v>18.5</v>
+        <v>37.75</v>
       </c>
       <c r="E18" s="1">
         <f>6060.87/4759.21-1</f>
@@ -976,7 +986,7 @@
         <v>1228</v>
       </c>
       <c r="G18">
-        <v>6060.87</v>
+        <v>778.22190264634503</v>
       </c>
       <c r="H18">
         <v>1.32</v>
@@ -990,10 +1000,10 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.66</v>
+        <v>11.13</v>
       </c>
       <c r="D19">
-        <v>20.71</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="E19" s="1">
         <f>151161.14/140918.01-1</f>
@@ -1003,7 +1013,7 @@
         <v>2269</v>
       </c>
       <c r="G19">
-        <v>151161.14000000001</v>
+        <v>2978.4272540983607</v>
       </c>
       <c r="H19">
         <v>0.67</v>
@@ -1017,10 +1027,10 @@
         <v>28</v>
       </c>
       <c r="C20">
-        <v>0.67</v>
+        <v>12.29</v>
       </c>
       <c r="D20">
-        <v>26.81</v>
+        <v>32.18</v>
       </c>
       <c r="E20" s="1">
         <f>165655.87/135102.66-1</f>
@@ -1030,7 +1040,7 @@
         <v>2366</v>
       </c>
       <c r="G20">
-        <v>165655.87</v>
+        <v>3264.0264423076919</v>
       </c>
       <c r="H20">
         <v>0.84</v>
@@ -1044,10 +1054,10 @@
         <v>29</v>
       </c>
       <c r="C21">
-        <v>1.59</v>
+        <v>16.23</v>
       </c>
       <c r="D21">
-        <v>39.54</v>
+        <v>32.71</v>
       </c>
       <c r="E21" s="1">
         <f>132774.53/126569.95-1</f>
@@ -1057,7 +1067,7 @@
         <v>6589</v>
       </c>
       <c r="G21">
-        <v>132774.53</v>
+        <v>2616.1437972887766</v>
       </c>
       <c r="H21">
         <v>0.67</v>

--- a/comp_data.xlsx
+++ b/comp_data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domonkos\Documents\company-valuation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EC0EF-C3AA-4710-9ACE-DD19C0D7810A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EECEFCF-A0E4-4144-A0B8-D883ED71C54B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{90F6D118-C31A-4279-8730-BD4899D446FF}"/>
   </bookViews>
@@ -489,10 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A0EB31-AFE3-4E40-AC03-DE604335FA48}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +501,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
@@ -1075,5 +1076,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>